--- a/biology/Zoologie/Hersilia_caudata/Hersilia_caudata.xlsx
+++ b/biology/Zoologie/Hersilia_caudata/Hersilia_caudata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hersilia caudata est une espèce d'araignées aranéomorphes de la famille des Hersiliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hersilia caudata est une espèce d'araignées aranéomorphes de la famille des Hersiliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 au Cap-Vert, au Sénégal, au Mali, en Guinée, au Burkina, en Côte d'Ivoire, au Nigeria, au Cameroun, au Tchad, en Somalie, au Soudan et en Égypte ;
 en Israël et au Xinjiang en Chine.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,25 à 9,30 mm et les femelles de 7,04 à 11,44 mm[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,25 à 9,30 mm et les femelles de 7,04 à 11,44 mm,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Audouin, 1826 : Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. in Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
